--- a/Data_Sources-Properties.xlsx
+++ b/Data_Sources-Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76139CD-24F0-43EB-9C5A-7BB02F5C1C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F11F059-9011-47BB-AA4B-EBAB5B013796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{F6573CF8-454A-46D0-A947-23DB58A514EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F6573CF8-454A-46D0-A947-23DB58A514EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV" sheetId="7" r:id="rId1"/>
@@ -1380,22 +1380,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1410,13 +1398,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1437,6 +1419,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1449,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1783,652 +1783,652 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.73046875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="17"/>
+    <col min="1" max="1" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="19" t="b">
+      <c r="E3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="E4" s="19" t="b">
+      <c r="E4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="19" t="b">
+      <c r="E5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="19" t="b">
+      <c r="E7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>20480</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>1000000</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="30" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E19" s="19" t="b">
+      <c r="E19" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="19" t="b">
+      <c r="E20" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="23"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="19" t="b">
+      <c r="E21" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="F21" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="23"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="F22" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="23"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="23"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="24" t="s">
+      <c r="F24" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" s="23"/>
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="F25" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" s="23"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="24" t="s">
+      <c r="F26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" s="23"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="F27" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="23"/>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="24" t="s">
+      <c r="F28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E29" s="19" t="b">
+      <c r="E29" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="23"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="E30" s="19" t="b">
+      <c r="E30" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A31" s="23"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="24" t="s">
+      <c r="F31" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="19" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26" t="s">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="27" t="s">
+      <c r="F32" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="21" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2456,452 +2456,452 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="19" t="b">
+      <c r="E4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="23"/>
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="19" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="19" t="b">
+      <c r="E10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="19" t="b">
+      <c r="E11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="19" t="b">
+      <c r="E15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="E19" s="19" t="b">
+      <c r="E19" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="28" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="19" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="27" t="s">
+      <c r="F21" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2929,19 +2929,19 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="253" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -3095,71 +3095,71 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="14" t="b">
+      <c r="B16" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>79</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -3229,39 +3229,39 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -3377,19 +3377,19 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="139.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>94</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>53</v>
       </c>
@@ -3455,45 +3455,45 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -3510,25 +3510,25 @@
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="77.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="88.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>103</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>114</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>118</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>122</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>123</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>126</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>128</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>131</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>146</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>148</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>150</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>154</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>158</v>
       </c>
@@ -4096,8 +4096,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>161</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4119,7 +4119,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="37"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -4129,7 +4129,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="37"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4139,7 +4139,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -4149,7 +4149,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="37"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -4159,7 +4159,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="37"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -4169,7 +4169,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="37"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -4179,7 +4179,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -4189,7 +4189,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -4199,7 +4199,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="37"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -4209,7 +4209,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="37"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -4219,7 +4219,7 @@
       <c r="G28" s="36"/>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -4229,7 +4229,7 @@
       <c r="G29" s="36"/>
       <c r="H29" s="37"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -4239,7 +4239,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="37"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -4249,7 +4249,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="37"/>
     </row>
-    <row r="32" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
